--- a/final_excel/1.xlsx
+++ b/final_excel/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\isbnlbs\final_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE3F7E78-033B-4774-959F-8221C91E8A53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296646C-A497-4279-85C7-3533AD08106B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1235,6 +1235,9 @@
       <c r="C28" t="s">
         <v>52</v>
       </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
